--- a/medicine/Psychotrope/Negroni_(cocktail)/Negroni_(cocktail).xlsx
+++ b/medicine/Psychotrope/Negroni_(cocktail)/Negroni_(cocktail).xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,10 +490,12 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
-Le Negroni est un cocktail à base de gin, de vermouth rouge et de Campari.  Il a été inventé à Florence (Italie) en 1919[1].
+Le Negroni est un cocktail à base de gin, de vermouth rouge et de Campari.  Il a été inventé à Florence (Italie) en 1919.
 </t>
         </is>
       </c>
@@ -512,7 +524,9 @@
           <t>Histoire</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">À cette époque[Laquelle ?], le café « Casoni » était le lieu où la noblesse florentine allait se rencontrer le soir, avant de dîner.
 Le comte Camillo Negroni avait coutume de s'y rendre et de consommer son Americano. Toutefois, le comte Negroni, qui aimait bien goûter les cocktails, était ennuyé de boire toujours le même et décida de changer. Il proposa ainsi au barman, Fosco Scarelli, de renforcer l’apéritif en utilisant les mêmes ingrédients, mais en se passant de l’eau gazeuse et en ajoutant du gin, que le comte avait découvert pendant ses voyages à Londres.
@@ -545,7 +559,9 @@
           <t>Recette[2]</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">3 cl de gin
 3 cl de campari
